--- a/hw/Final-ExtraCredit/GradeCalc.xlsx
+++ b/hw/Final-ExtraCredit/GradeCalc.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\IS303\Winter 2024\Class Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackestes/Documents/Current Semester/IS303/hw/Final-ExtraCredit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF62FDD-9A1A-44EC-89E1-960D6783B11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51E244-4645-2547-B98D-84FE921DB266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{4B7697EC-57B3-48FA-8302-3907655CBFC3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="20120" xr2:uid="{4B7697EC-57B3-48FA-8302-3907655CBFC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -598,138 +609,138 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5">
         <v>0.15</v>
       </c>
       <c r="D1" s="6">
         <f>B1*C1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8">
         <v>0.1</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D5" si="0">B3*C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="13">
         <v>0.15</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="13">
         <v>0.2</v>
       </c>
       <c r="D8" s="14">
         <f>(B7 + B8) *C8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="13">
         <v>0.3</v>
       </c>
       <c r="D11" s="14">
         <f>(B10+B11)*C11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="19" t="s">
         <v>8</v>
@@ -737,31 +748,31 @@
       <c r="C13" s="20"/>
       <c r="D13" s="18">
         <f>SUM(D1:D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94.800000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
@@ -769,7 +780,7 @@
       <c r="C17" s="20"/>
       <c r="D17" s="17">
         <f>D13+B15</f>
-        <v>0</v>
+        <v>95.800000000000011</v>
       </c>
     </row>
   </sheetData>
